--- a/picking/query.xlsx
+++ b/picking/query.xlsx
@@ -14,303 +14,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
-  <si>
-    <t>start,J,N,S</t>
-  </si>
-  <si>
-    <t>start,C,R</t>
-  </si>
-  <si>
-    <t>start,H,O,P</t>
-  </si>
-  <si>
-    <t>start,I,K,M,N,O,S,U,V,c</t>
-  </si>
-  <si>
-    <t>start,D,F,P,c,e</t>
-  </si>
-  <si>
-    <t>start,B,W</t>
-  </si>
-  <si>
-    <t>start,A</t>
-  </si>
-  <si>
-    <t>start,C,K,N,O,R,S,V,a,b</t>
-  </si>
-  <si>
-    <t>start,H,R,b</t>
-  </si>
-  <si>
-    <t>start,B,C,H,L,P,X,Y</t>
-  </si>
-  <si>
-    <t>start,D,E,F,N,X,Z</t>
-  </si>
-  <si>
-    <t>start,Q,c</t>
-  </si>
-  <si>
-    <t>start,C,E,G,J,K,R</t>
-  </si>
-  <si>
-    <t>start,A,E,H,J,N,W,c</t>
-  </si>
-  <si>
-    <t>start,F,K,R,W,a</t>
-  </si>
-  <si>
-    <t>start,N,W,a,f</t>
-  </si>
-  <si>
-    <t>start,F,J,O,X</t>
-  </si>
-  <si>
-    <t>start,B,c,e</t>
-  </si>
-  <si>
-    <t>start,B,G,K,M,P,V,Z,a,c</t>
-  </si>
-  <si>
-    <t>start,H,Q,R,W,X,e</t>
-  </si>
-  <si>
-    <t>start,A,D,G,H,J,S,W</t>
-  </si>
-  <si>
-    <t>start,K,L,O,R,V,e</t>
-  </si>
-  <si>
-    <t>start,D,E,G,I,L,T,Y,d,e</t>
-  </si>
-  <si>
-    <t>start,A,F,G,H,I,K,N,S,W</t>
-  </si>
-  <si>
-    <t>start,A,E,F,I,J,Q,b,c,d</t>
-  </si>
-  <si>
-    <t>start,A,J,M,S,T,c,e</t>
-  </si>
-  <si>
-    <t>start,H,N,O,Q,Y,b,d</t>
-  </si>
-  <si>
-    <t>start,D,E,F,H,Q,R,b,c</t>
-  </si>
-  <si>
-    <t>start,I</t>
-  </si>
-  <si>
-    <t>start,J,K,M,R,V,X,Y,b,e</t>
-  </si>
-  <si>
-    <t>start,E,e</t>
-  </si>
-  <si>
-    <t>start,C,D,F,J,a</t>
-  </si>
-  <si>
-    <t>start,M</t>
-  </si>
-  <si>
-    <t>start,M,a,b,d</t>
-  </si>
-  <si>
-    <t>start,B,E,J,N,P,R,W,Y</t>
-  </si>
-  <si>
-    <t>start,B,P,Q,X</t>
-  </si>
-  <si>
-    <t>start,R,S,X,e,f</t>
-  </si>
-  <si>
-    <t>start,N,V,X</t>
-  </si>
-  <si>
-    <t>start,L,W</t>
-  </si>
-  <si>
-    <t>start,D,G,O,R,T,Y,a,b,e</t>
-  </si>
-  <si>
-    <t>start,A,C</t>
-  </si>
-  <si>
-    <t>start,C,E,H,M,O,R,V,X,a</t>
-  </si>
-  <si>
-    <t>start,C,D,H,M,P,R,U,W</t>
-  </si>
-  <si>
-    <t>start,C,G,H,R,T,U,W,c</t>
-  </si>
-  <si>
-    <t>start,B,H,J,M,Q,S,c</t>
-  </si>
-  <si>
-    <t>start,B,D,M,N,O,T,U,b,e</t>
-  </si>
-  <si>
-    <t>start,P,S,T,a,f</t>
-  </si>
-  <si>
-    <t>start,B,H,L,N,O,P,U,Y,e</t>
-  </si>
-  <si>
-    <t>start,L,M,P,R,S,V,X,Z,d</t>
-  </si>
-  <si>
-    <t>start,D,I,V,b</t>
-  </si>
-  <si>
-    <t>start,D,R,T,V,f</t>
-  </si>
-  <si>
-    <t>start,D,G,M,O,U</t>
-  </si>
-  <si>
-    <t>start,C,M,X,a</t>
-  </si>
-  <si>
-    <t>start,K,Z</t>
-  </si>
-  <si>
-    <t>start,B,D,G,M,P,Q,T,V,f</t>
-  </si>
-  <si>
-    <t>start,B,U,b</t>
-  </si>
-  <si>
-    <t>start,A,G,N,U,X,b,e,f</t>
-  </si>
-  <si>
-    <t>start,D,F,S,T</t>
-  </si>
-  <si>
-    <t>start,N,R,b,e</t>
-  </si>
-  <si>
-    <t>start,C,G,I,K,O,S,Y,a,c</t>
-  </si>
-  <si>
-    <t>start,A,B,C,J,O,P,Y,Z</t>
-  </si>
-  <si>
-    <t>start,C,D,E,G,P,R,V,c</t>
-  </si>
-  <si>
-    <t>start,P,U,b</t>
-  </si>
-  <si>
-    <t>start,X,a,c</t>
-  </si>
-  <si>
-    <t>start,G,I,O,R,V,Z,d</t>
-  </si>
-  <si>
-    <t>start,F,H,P,S,U,e</t>
-  </si>
-  <si>
-    <t>start,E,F,H,L,T,X,c,e</t>
-  </si>
-  <si>
-    <t>start,L,M,N,Z</t>
-  </si>
-  <si>
-    <t>start,E,L,N,P,Q,S,a,c</t>
-  </si>
-  <si>
-    <t>start,M,P,V</t>
-  </si>
-  <si>
-    <t>start,B,E,J,c</t>
-  </si>
-  <si>
-    <t>start,M,c,f</t>
-  </si>
-  <si>
-    <t>start,H,O,Y</t>
-  </si>
-  <si>
-    <t>start,B,C,F,H,P,S,X</t>
-  </si>
-  <si>
-    <t>start,B,M</t>
-  </si>
-  <si>
-    <t>start,C,H,I,P,Q,T,Z,c</t>
-  </si>
-  <si>
-    <t>start,D,G,U</t>
-  </si>
-  <si>
-    <t>start,A,B,D,I,O,Q,Z,c,f</t>
-  </si>
-  <si>
-    <t>start,I,U,W,b</t>
-  </si>
-  <si>
-    <t>start,C,F,L,M,R,f</t>
-  </si>
-  <si>
-    <t>start,K</t>
-  </si>
-  <si>
-    <t>start,F,L,M,N,S,T,e</t>
-  </si>
-  <si>
-    <t>start,L,d</t>
-  </si>
-  <si>
-    <t>start,K,f</t>
-  </si>
-  <si>
-    <t>start,L,O,U,c</t>
-  </si>
-  <si>
-    <t>start,H,L,T,c,f</t>
-  </si>
-  <si>
-    <t>start,C,D,F,P,Z,b,d</t>
-  </si>
-  <si>
-    <t>start,M,Q</t>
-  </si>
-  <si>
-    <t>start,H,I,N,Z</t>
-  </si>
-  <si>
-    <t>start,C,J,N,Q,R,T,V,Y,e</t>
-  </si>
-  <si>
-    <t>start,E,H,P,Y,f</t>
-  </si>
-  <si>
-    <t>start,G,H,I,Q,S,U,b</t>
-  </si>
-  <si>
-    <t>start,O,W,X,Y,a,e</t>
-  </si>
-  <si>
-    <t>start,F,H,I,L,P,Q,a,f</t>
-  </si>
-  <si>
-    <t>start,G,I,N</t>
-  </si>
-  <si>
-    <t>start,H,K,c</t>
-  </si>
-  <si>
-    <t>start,A,B,C,H,J,K,L,M,U</t>
-  </si>
-  <si>
-    <t>start,A,B,E,J,O,P,S,d</t>
-  </si>
-  <si>
-    <t>start,C,O,U,b,c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>start,I,L,Q</t>
+  </si>
+  <si>
+    <t>start,B,J,K,P,Q,V,c,e</t>
+  </si>
+  <si>
+    <t>start,D,G,P,Q,S,V,c</t>
+  </si>
+  <si>
+    <t>start,D,O,P,S,T,d</t>
+  </si>
+  <si>
+    <t>start,A,O,T,X,c</t>
+  </si>
+  <si>
+    <t>start,L,Q,W,d</t>
+  </si>
+  <si>
+    <t>start,B,D,G,N,O,T</t>
+  </si>
+  <si>
+    <t>start,C,G,R,W</t>
+  </si>
+  <si>
+    <t>start,A,M</t>
+  </si>
+  <si>
+    <t>start,H,R,S,T,W,Y,f</t>
+  </si>
+  <si>
+    <t>start,A,D,G,I,Q,U,X,Z</t>
+  </si>
+  <si>
+    <t>start,C,N,R,e</t>
+  </si>
+  <si>
+    <t>start,D,O,R,W</t>
+  </si>
+  <si>
+    <t>start,A,J,M,X,Z,b,e</t>
+  </si>
+  <si>
+    <t>start,G,K,M,N,O,T,Y,c</t>
+  </si>
+  <si>
+    <t>start,G,R,S,V,W,X,d,f</t>
+  </si>
+  <si>
+    <t>start,F,G,M,R,W,X,a</t>
+  </si>
+  <si>
+    <t>start,C,G,J,L,V</t>
+  </si>
+  <si>
+    <t>start,A,I,R,U,X</t>
+  </si>
+  <si>
+    <t>start,H,T,U,a,f</t>
+  </si>
+  <si>
+    <t>start,B,D,E,K,M,N,P,X</t>
+  </si>
+  <si>
+    <t>start,C,F,P,S,U,W,Z,c</t>
+  </si>
+  <si>
+    <t>start,I,c</t>
+  </si>
+  <si>
+    <t>start,P,S</t>
+  </si>
+  <si>
+    <t>start,F,V</t>
+  </si>
+  <si>
+    <t>start,H,T,b,e</t>
+  </si>
+  <si>
+    <t>start,K,L,Q,U,e</t>
+  </si>
+  <si>
+    <t>start,D,E,I,L,S,X</t>
+  </si>
+  <si>
+    <t>start,C,L,O,S,d,e</t>
+  </si>
+  <si>
+    <t>start,C,E,H,M,N,S,W,a</t>
+  </si>
+  <si>
+    <t>start,H,Q,V,W,X,b,c</t>
+  </si>
+  <si>
+    <t>start,A,B,D,I,Q,V,W,Y</t>
+  </si>
+  <si>
+    <t>start,T</t>
+  </si>
+  <si>
+    <t>start,A,B,G,I,P,Q,R,X,b,c</t>
+  </si>
+  <si>
+    <t>start,C,E,G,K,P,b,d,e</t>
+  </si>
+  <si>
+    <t>start,A,D,K,S,V,W,b,f</t>
+  </si>
+  <si>
+    <t>start,F,L,R,V,b</t>
+  </si>
+  <si>
+    <t>start,Q,T,U,c</t>
+  </si>
+  <si>
+    <t>start,I,P,Z,b</t>
+  </si>
+  <si>
+    <t>start,A,M,N,O,P,R,V,d</t>
+  </si>
+  <si>
+    <t>start,E,J,N,O,R,W,c</t>
+  </si>
+  <si>
+    <t>start,G,K,L,V,c,e</t>
+  </si>
+  <si>
+    <t>start,C,I,P,T,V,W,a,d</t>
+  </si>
+  <si>
+    <t>start,V</t>
+  </si>
+  <si>
+    <t>start,D,K,M,N,P,S,T,W,Z</t>
+  </si>
+  <si>
+    <t>start,D,R</t>
+  </si>
+  <si>
+    <t>start,B,K</t>
+  </si>
+  <si>
+    <t>start,Q,X</t>
+  </si>
+  <si>
+    <t>start,F,H,K,M,N</t>
+  </si>
+  <si>
+    <t>start,I,O,P,X</t>
+  </si>
+  <si>
+    <t>start,J,P,R,f</t>
+  </si>
+  <si>
+    <t>start,B,H,I,N,S,Z,c,f</t>
+  </si>
+  <si>
+    <t>start,H,J,S,W,c,d</t>
+  </si>
+  <si>
+    <t>start,B,F,L,Q,W,b,e</t>
+  </si>
+  <si>
+    <t>start,M,V</t>
+  </si>
+  <si>
+    <t>start,D,N,U,e</t>
+  </si>
+  <si>
+    <t>start,G,J,O</t>
+  </si>
+  <si>
+    <t>start,E,K,R,S,U,Z,c</t>
+  </si>
+  <si>
+    <t>start,E,N</t>
+  </si>
+  <si>
+    <t>start,A,E,F,L</t>
+  </si>
+  <si>
+    <t>start,J</t>
+  </si>
+  <si>
+    <t>start,M,N,O,Q,S,W,Y,a</t>
+  </si>
+  <si>
+    <t>start,B,H,O,S,V,X,c</t>
+  </si>
+  <si>
+    <t>start,F,J,e</t>
+  </si>
+  <si>
+    <t>start,I,L,O,T,V,X,Y,c,e</t>
+  </si>
+  <si>
+    <t>start,A,D,F,H,N,Q,Z,f</t>
+  </si>
+  <si>
+    <t>start,A,C,Z,a</t>
+  </si>
+  <si>
+    <t>start,K,O,R,V,a</t>
+  </si>
+  <si>
+    <t>start,f</t>
+  </si>
+  <si>
+    <t>start,C,G,N,P,T,X,e,f</t>
+  </si>
+  <si>
+    <t>start,C,E,G,H,J,L,M,U,b</t>
+  </si>
+  <si>
+    <t>start,A,B,F,J,L,P,T,U</t>
+  </si>
+  <si>
+    <t>start,K,U</t>
+  </si>
+  <si>
+    <t>start,B,K,P,Q,W,Z</t>
+  </si>
+  <si>
+    <t>start,Q,T</t>
+  </si>
+  <si>
+    <t>start,A,C,P,T,V,X,Y,Z</t>
+  </si>
+  <si>
+    <t>start,G,H,J,N,T,X,c</t>
+  </si>
+  <si>
+    <t>start,F,R,X,a,b</t>
+  </si>
+  <si>
+    <t>start,F</t>
+  </si>
+  <si>
+    <t>start,B,C,G,M,N,S,W,a,e</t>
+  </si>
+  <si>
+    <t>start,E,N,O,P,S,T,U,W</t>
+  </si>
+  <si>
+    <t>start,N,T,U</t>
+  </si>
+  <si>
+    <t>start,A,D,K,P,T,V,a,c</t>
+  </si>
+  <si>
+    <t>start,F,Y,a</t>
+  </si>
+  <si>
+    <t>start,D,I,L,O,S</t>
+  </si>
+  <si>
+    <t>start,B,E,O,T,Z</t>
+  </si>
+  <si>
+    <t>start,B,E,F,T,X,c</t>
+  </si>
+  <si>
+    <t>start,D,F,J,R,U,a,d</t>
+  </si>
+  <si>
+    <t>start,G,J,N,O,P,a,b</t>
+  </si>
+  <si>
+    <t>start,V,a</t>
+  </si>
+  <si>
+    <t>start,D,H,K,O,Q,W</t>
+  </si>
+  <si>
+    <t>start,H,N,R,T,c</t>
+  </si>
+  <si>
+    <t>start,K,N,O,U,V,W,b,d</t>
+  </si>
+  <si>
+    <t>start,F,O,S,W,X</t>
+  </si>
+  <si>
+    <t>start,I,Q</t>
+  </si>
+  <si>
+    <t>start,G,T,a,f</t>
+  </si>
+  <si>
+    <t>start,J,L,N,S,W</t>
+  </si>
+  <si>
+    <t>start,B,C,N,Q,R,V,Y,d,f</t>
+  </si>
+  <si>
+    <t>start,B,D,H,c,f</t>
+  </si>
+  <si>
+    <t>start,B,e,f</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
